--- a/biology/Zoologie/Barbaridactylus/Barbaridactylus.xlsx
+++ b/biology/Zoologie/Barbaridactylus/Barbaridactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbaridactylus grandis
-Barbaridactylus est un genre fossile de ptérosaures ptérodactyloïdes de la famille des nyctosauridés ayant vécu en Afrique du Nord à la fin du Crétacé supérieur (Maastrichtien terminal), il y a environ 67 Ma (millions d'années)[1].
-Une seule espèce est rattachée au genre : Barbaridactylus grandis, décrite en 2018 par Nicholas R. Longrich, David M. Martill et Brian Andres[2]. 
+Barbaridactylus est un genre fossile de ptérosaures ptérodactyloïdes de la famille des nyctosauridés ayant vécu en Afrique du Nord à la fin du Crétacé supérieur (Maastrichtien terminal), il y a environ 67 Ma (millions d'années).
+Une seule espèce est rattachée au genre : Barbaridactylus grandis, décrite en 2018 par Nicholas R. Longrich, David M. Martill et Brian Andres. 
 </t>
         </is>
       </c>
@@ -513,16 +525,18 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce ptérosaure fait partie d'un ensemble diversifié de ptérosaures découverts au Maroc dans les mines de phosphates de Sidi Daoui et de Sidi Chennane sur le plateau de Khouribga dans le bassin d'Ouled Abdoun, à environ 120 km au sud-est de Casablanca. Ils sont décrits ensemble par Longrich et ses collègues en 2018[2].
-Ces ptérosaures appartiennent à trois familles différentes : les Nyctosauridae, les Azhdarchidae et les Pteranodontidae, et à pas moins de sept espèces différentes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce ptérosaure fait partie d'un ensemble diversifié de ptérosaures découverts au Maroc dans les mines de phosphates de Sidi Daoui et de Sidi Chennane sur le plateau de Khouribga dans le bassin d'Ouled Abdoun, à environ 120 km au sud-est de Casablanca. Ils sont décrits ensemble par Longrich et ses collègues en 2018.
+Ces ptérosaures appartiennent à trois familles différentes : les Nyctosauridae, les Azhdarchidae et les Pteranodontidae, et à pas moins de sept espèces différentes :
 trois nyctosauridés :
 Barbaridactylus grandis Longrich et al., 2018,
 Alcione elainus Longrich et al., 2018,
 Simurghia robusta Longrich et al., 2018;
 trois azhdarchidés :
-Phosphatodraco mauritanicus Pereda-Suberbiola et al.[3],
+Phosphatodraco mauritanicus Pereda-Suberbiola et al.,
 Azhdarchidae aff. Quetzalcoatlus,
 Azhdarchidae de Sidi Chennane ;
 un ptéranodontidé :
@@ -556,9 +570,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Barbaridactylus fait référence selon les auteurs à la côte des Barbares d'Afrique du Nord, composé avec le mot grec daktylos, (δάκτυλος) signifiant « doigt ». Le nom d'espèce grandis (« grand »), témoigne de sa grande taille[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Barbaridactylus fait référence selon les auteurs à la côte des Barbares d'Afrique du Nord, composé avec le mot grec daktylos, (δάκτυλος) signifiant « doigt ». Le nom d'espèce grandis (« grand »), témoigne de sa grande taille.
 </t>
         </is>
       </c>
@@ -587,10 +603,12 @@
           <t>Découverte et description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le spécimen type répertorié FSAC-OB 232, est constitué d'un humérus gauche, d'un fémur droit, d'un radius et cubitus droits, d'une vertèbre cervicale, d'un scapulo-coracoïde gauche et d'un fragment de mandibule droite. Quatre autres spécimens du même site ont été attribués à Barbaridactylus (FSAC-OB 8, 9, 10 et 11). Il s'agit de quatre humérus (l'os le plus résistant lors du processus de fossilisation chez les nyctosauridés.
-Barbaridactylus est un grand nyctosauridé, comme l'indique son humérus long de 22,5 centimètres. Son envergure est de l'ordre de 5 mètres ce qui en fait le plus grand de sa famille dans les gisements de phosphates marocains[2].
+Barbaridactylus est un grand nyctosauridé, comme l'indique son humérus long de 22,5 centimètres. Son envergure est de l'ordre de 5 mètres ce qui en fait le plus grand de sa famille dans les gisements de phosphates marocains.
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des nyctosauridés sont généralement considérés comme des planeurs pélagiques spécialisés comme les frégates actuelles. Leurs tailles estimées varient entre 2 et 5 mètres[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des nyctosauridés sont généralement considérés comme des planeurs pélagiques spécialisés comme les frégates actuelles. Leurs tailles estimées varient entre 2 et 5 mètres.
 </t>
         </is>
       </c>
@@ -650,9 +670,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme ci-dessous résulte de l'analyse phylogénétique de B. Andres, J. Clark et X. Xu en 2014[5], mise à jour en 2018 pour incorporer les découvertes de Longrich et ses collègues au Maroc[2]. Il montre que Barbaridactylus, parait un peu plus évolué que ses deux genres contemporains de nyctosauridés du Maroc : Alcione et Simurghia. Il est placé en groupe frère de Nyctosaurus lamegoi[5],[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous résulte de l'analyse phylogénétique de B. Andres, J. Clark et X. Xu en 2014, mise à jour en 2018 pour incorporer les découvertes de Longrich et ses collègues au Maroc. Il montre que Barbaridactylus, parait un peu plus évolué que ses deux genres contemporains de nyctosauridés du Maroc : Alcione et Simurghia. Il est placé en groupe frère de Nyctosaurus lamegoi, :
 </t>
         </is>
       </c>
@@ -681,7 +703,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Nicholas R. Longrich, David M. Martill et Brian Andres, « Late Maastrichtian pterosaurs from North Africa and mass extinction of Pterosauria at the Cretaceous-Paleogene boundary », PLOS Biology, PLoS, vol. 16, no 3,‎ 13 mars 2018, e2001663 (ISSN 1544-9173 et 1545-7885, OCLC 265381048, PMID 29534059, PMCID 5849296, DOI 10.1371/JOURNAL.PBIO.2001663)</t>
         </is>
